--- a/boards/arm/stm32/st_nucleo64_l053/inc/px_board_gpio.xlsx
+++ b/boards/arm/stm32/st_nucleo64_l053/inc/px_board_gpio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33962635-9ACB-4952-AE91-0F4136527B02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9559D14D-0AD3-44ED-A965-09508FC7E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -855,7 +860,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
@@ -869,13 +874,12 @@
     <col min="12" max="12" width="18.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" style="3" customWidth="1"/>
+    <col min="15" max="16" width="2.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="129.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="3"/>
-    <col min="19" max="19" width="62.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="3"/>
-    <col min="21" max="21" width="62.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="53.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -918,10 +922,10 @@
         <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -982,12 +986,12 @@
         <v>#define PX_GPIO_UART2_TX PX_GPIO(A, 2, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
       </c>
       <c r="S2" s="3" t="str">
-        <f t="shared" ref="S2:S11" si="1">CONCATENATE("static const px_gpio_handle_t ",LOWER($A2)," = {",$A2,"};")</f>
+        <f t="shared" ref="S2:S11" si="1">CONCATENATE("#define PX_GPIO_",$B2,$C2," ",$A2)</f>
+        <v>#define PX_GPIO_A2 PX_GPIO_UART2_TX</v>
+      </c>
+      <c r="U2" s="3" t="str">
+        <f t="shared" ref="U2:U11" si="2">CONCATENATE("static const px_gpio_handle_t ",LOWER($A2)," = {",$A2,"};")</f>
         <v>static const px_gpio_handle_t px_gpio_uart2_tx = {PX_GPIO_UART2_TX};</v>
-      </c>
-      <c r="U2" s="3" t="str">
-        <f t="shared" ref="U2:U11" si="2">CONCATENATE("#define PX_GPIO_",$B2,$C2," ",$A2)</f>
-        <v>#define PX_GPIO_A2 PX_GPIO_UART2_TX</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1049,11 +1053,11 @@
       </c>
       <c r="S3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_uart2_rx = {PX_GPIO_UART2_RX};</v>
+        <v>#define PX_GPIO_A3 PX_GPIO_UART2_RX</v>
       </c>
       <c r="U3" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A3 PX_GPIO_UART2_RX</v>
+        <v>static const px_gpio_handle_t px_gpio_uart2_rx = {PX_GPIO_UART2_RX};</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1115,11 +1119,11 @@
       </c>
       <c r="S4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_led_grn = {PX_GPIO_LED_GRN};</v>
+        <v>#define PX_GPIO_A5 PX_GPIO_LED_GRN</v>
       </c>
       <c r="U4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A5 PX_GPIO_LED_GRN</v>
+        <v>static const px_gpio_handle_t px_gpio_led_grn = {PX_GPIO_LED_GRN};</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1181,11 +1185,11 @@
       </c>
       <c r="S5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_uart1_tx = {PX_GPIO_UART1_TX};</v>
+        <v>#define PX_GPIO_A9 PX_GPIO_UART1_TX</v>
       </c>
       <c r="U5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A9 PX_GPIO_UART1_TX</v>
+        <v>static const px_gpio_handle_t px_gpio_uart1_tx = {PX_GPIO_UART1_TX};</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1247,11 +1251,11 @@
       </c>
       <c r="S6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_uart1_rx = {PX_GPIO_UART1_RX};</v>
+        <v>#define PX_GPIO_A10 PX_GPIO_UART1_RX</v>
       </c>
       <c r="U6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A10 PX_GPIO_UART1_RX</v>
+        <v>static const px_gpio_handle_t px_gpio_uart1_rx = {PX_GPIO_UART1_RX};</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1313,11 +1317,11 @@
       </c>
       <c r="S7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_swdio = {PX_GPIO_SWDIO};</v>
+        <v>#define PX_GPIO_A13 PX_GPIO_SWDIO</v>
       </c>
       <c r="U7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A13 PX_GPIO_SWDIO</v>
+        <v>static const px_gpio_handle_t px_gpio_swdio = {PX_GPIO_SWDIO};</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1379,11 +1383,11 @@
       </c>
       <c r="S8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_swdck = {PX_GPIO_SWDCK};</v>
+        <v>#define PX_GPIO_A14 PX_GPIO_SWDCK</v>
       </c>
       <c r="U8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A14 PX_GPIO_SWDCK</v>
+        <v>static const px_gpio_handle_t px_gpio_swdck = {PX_GPIO_SWDCK};</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1463,11 +1467,11 @@
       </c>
       <c r="S10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_rf_led = {PX_GPIO_RF_LED};</v>
+        <v>#define PX_GPIO_C7 PX_GPIO_RF_LED</v>
       </c>
       <c r="U10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C7 PX_GPIO_RF_LED</v>
+        <v>static const px_gpio_handle_t px_gpio_rf_led = {PX_GPIO_RF_LED};</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1529,11 +1533,11 @@
       </c>
       <c r="S11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_btn_blue = {PX_GPIO_BTN_BLUE};</v>
+        <v>#define PX_GPIO_C13 PX_GPIO_BTN_BLUE</v>
       </c>
       <c r="U11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C13 PX_GPIO_BTN_BLUE</v>
+        <v>static const px_gpio_handle_t px_gpio_btn_blue = {PX_GPIO_BTN_BLUE};</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
